--- a/ONCHO/OEM/Congo/2022 jul/cg_oncho_oem_2_participant_202207.xlsx
+++ b/ONCHO/OEM/Congo/2022 jul/cg_oncho_oem_2_participant_202207.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="114">
   <si>
     <t>type</t>
   </si>
@@ -253,9 +253,6 @@
   </si>
   <si>
     <t>list_name</t>
-  </si>
-  <si>
-    <t>label</t>
   </si>
   <si>
     <t>region_list</t>
@@ -1424,7 +1421,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="$A17:$XFD27"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1856,10 +1853,10 @@
   <sheetPr/>
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1878,293 +1875,309 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="E1" s="11"/>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:5">
       <c r="A2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="12"/>
     </row>
     <row r="3" s="4" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="12"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:5">
       <c r="A4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="12"/>
     </row>
     <row r="5" s="4" customFormat="1" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="12"/>
     </row>
     <row r="6" s="4" customFormat="1" spans="1:5">
       <c r="A6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="C6" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="12"/>
     </row>
     <row r="7" s="4" customFormat="1" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="12"/>
     </row>
     <row r="8" s="4" customFormat="1" spans="1:5">
       <c r="A8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>91</v>
-      </c>
       <c r="C8" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="12"/>
     </row>
     <row r="9" s="4" customFormat="1" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10" s="4" customFormat="1" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="12"/>
     </row>
     <row r="11" s="4" customFormat="1" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="12"/>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:5">
       <c r="A12" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="12"/>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="12"/>
     </row>
     <row r="14" s="4" customFormat="1" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="12"/>
     </row>
     <row r="15" s="4" customFormat="1" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="12"/>
     </row>
     <row r="16" s="4" customFormat="1" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="12"/>
     </row>
     <row r="17" s="4" customFormat="1" spans="1:5">
       <c r="A17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="12"/>
     </row>
     <row r="18" s="4" customFormat="1" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="9"/>
+        <v>101</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="D18" s="7"/>
       <c r="E18" s="12"/>
     </row>
     <row r="19" s="4" customFormat="1" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="9"/>
+        <v>102</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="D19" s="7"/>
       <c r="E19" s="12"/>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:5">
       <c r="A20" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="9"/>
+        <v>103</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="D20" s="7"/>
       <c r="E20" s="12"/>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="9"/>
+        <v>104</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="12"/>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="9"/>
+        <v>105</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="D22" s="7"/>
       <c r="E22" s="12"/>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="9"/>
+        <v>106</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="D23" s="7"/>
       <c r="E23" s="12"/>
     </row>
     <row r="24" s="4" customFormat="1" spans="1:5">
       <c r="A24" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="D24" s="7"/>
       <c r="E24" s="12"/>
     </row>
@@ -2336,8 +2349,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -2348,24 +2361,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
         <v>112</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>113</v>
-      </c>
-      <c r="C2" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
